--- a/results/inicio_viaje.xlsx
+++ b/results/inicio_viaje.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -413,9 +413,1087 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="C3">
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>17</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>15</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>17</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>15</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>18</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>13</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>13</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>14</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>15</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>19</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>16</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>13</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
         <v>1</v>
       </c>
     </row>

--- a/results/inicio_viaje.xlsx
+++ b/results/inicio_viaje.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1040,460 +1040,9 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>15</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>2</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>5</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>19</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>4</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>7</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>2</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>4</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>6</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>15</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>10</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>17</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>15</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>6</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>4</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>6</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>6</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>12</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>15</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>18</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>13</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>8</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>11</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>13</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>14</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>15</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>19</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>11</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>10</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>14</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>16</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>6</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>16</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>13</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
-      </c>
-      <c r="C101">
         <v>1</v>
       </c>
     </row>

--- a/results/inicio_viaje.xlsx
+++ b/results/inicio_viaje.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1040,9 +1040,141 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>14</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>14</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>14</v>
+      </c>
+      <c r="C72">
         <v>1</v>
       </c>
     </row>

--- a/results/inicio_viaje.xlsx
+++ b/results/inicio_viaje.xlsx
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -479,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -545,7 +545,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -556,7 +556,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -567,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -589,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -688,7 +688,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -820,7 +820,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -831,7 +831,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -842,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -864,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -919,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -941,7 +941,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -952,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -974,7 +974,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1007,7 +1007,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -1073,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -1084,7 +1084,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1095,7 +1095,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1117,7 +1117,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1139,7 +1139,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1150,7 +1150,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1161,7 +1161,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -1172,7 +1172,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C72">
         <v>1</v>
